--- a/biology/Botanique/Glandora/Glandora.xlsx
+++ b/biology/Botanique/Glandora/Glandora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glandora est un genre de plantes à fleurs de la famille des Boraginaceae, originaire de la région méditerranéenne occidentale et centrale ; Maroc, Algérie, Portugal, Espagne, France, Italie et Grèce[1]. Il a été séparé de Lithodora en 2008[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glandora est un genre de plantes à fleurs de la famille des Boraginaceae, originaire de la région méditerranéenne occidentale et centrale ; Maroc, Algérie, Portugal, Espagne, France, Italie et Grèce. Il a été séparé de Lithodora en 2008.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (22 juillet 2023)[3]Les espèces acceptées sont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (22 juillet 2023)Les espèces acceptées sont :
 Glandora diffusa (Lag.) D.C.Thomas
 Glandora gastonii (Benth.) L.Cecchi &amp; Selvi
 Glandora goulandrisiorum (Rech.f.) L.Cecchi &amp; Selvi
